--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/16_Bilecik_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/16_Bilecik_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3625BD24-28BB-4A3C-8B3D-5B81345BAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D3E8503-0131-4296-8D23-D6E49F380444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{3C22DC8D-20B8-4427-BF64-B290CA626100}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{309D74AF-8D18-4E52-84F8-AE91CC03B114}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -909,15 +909,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FC051B23-9256-4957-96DF-306422B104CF}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{15E345FE-C2E9-479F-B78E-F4237C2D886C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{867579D9-A855-4868-A634-B8B82513E75E}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{D1D9E18E-F004-4349-883E-4C1C6248C389}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{A78F3A5A-FD4E-4BBF-A784-48690D3FEC66}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2731F2CD-C0FB-4451-A9F5-5F84AC048B4A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A0F156E7-5A38-4034-BE4E-4C1A355F9A76}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F4C79347-6CE4-4EF0-BF9C-588E9B11611D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{92567DB2-6D06-44CC-A011-8BB17C30F9E5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E2AB0BB3-9C63-4C92-A038-574BF81C43EA}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6BBCAE5B-CF91-4B98-8B8B-6205E05EAC7A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{6FD2DC3F-973F-4048-835A-6CC713772210}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{9ECF28F1-2D47-4ED1-8FD4-C6BF3C617CEC}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{9FBA8012-917A-4E23-ACCF-698AE06E5625}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{22C5277F-49A6-43CB-AC4B-107A4B9DAAFD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{FA7D6666-F7EE-44C1-A091-168C39396522}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{2BB8B967-04A9-4F83-9DC5-235829B639AE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0B91E320-05DC-4BF9-914D-5B7BC83FD659}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7F3941-1C02-412F-8736-3C0C70DB94DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EF355A-8971-453D-8B45-34075CC3F241}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2538,7 +2538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F59CEA-416D-4405-A1E5-009230175C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4468BA-F4FB-4EFE-BB69-69F974B77CAA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3782,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8AF3F0-0E09-49AD-8F75-DC66996A617E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DE41B9-C038-4C8C-8778-2EFC83B44C63}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5024,7 +5024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72348690-3BE0-478E-A303-E31E7CD84772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945BB2A5-2DA2-417A-9209-BA28B26A79EC}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6268,7 +6268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242731BA-C8BF-4B33-A2AD-B08F9F875FFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC5545A-787F-4C2C-9C31-45D7C173186A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7509,7 +7509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7E662-6836-434F-A807-304D7ECA2F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4ECE16E-9867-49A8-941E-763F895E80E6}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8751,7 +8751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655B73F7-95D2-4F64-AA5D-E10816B79658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9457B330-35A5-48CD-A886-78B01FFAA34D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9991,7 +9991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA51CD0-4E94-4EAA-9D2F-E5BFE3F44508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F82E8F0-E44C-4FC8-ADCC-CB95333BD6ED}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11231,7 +11231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5C2776-3804-4DEB-ACC2-F14A66D02463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE93723-87ED-48C3-BA5C-92489F8AD386}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12477,7 +12477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9AA9-E264-4CCD-AA51-68562C3B1869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECEEAD5-25A4-4DE1-B9AB-430B2E5520A0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13725,7 +13725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075E1285-B04F-4C26-AB1E-4282F53D1E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7348856-2B29-420C-A370-6972DEDD1295}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14973,7 +14973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD8179F-8A09-400F-AC92-08F855F06E46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDC6C10-A0E7-471E-8E6E-B88C5057A2F3}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
